--- a/src/controllers/outputs/articles.xlsx
+++ b/src/controllers/outputs/articles.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="articles" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,62 +528,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>John Cleese to Reboot ‘Fawlty Towers’</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>February 8</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mr. Cleese will write and act alongside his daughter Camilla Cleese in a revival of the renowned BBC comedy.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08xp-towers-top-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A Song and Dance Collaboration, Straight Outta Swamplandia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>February 3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>The choreographer Troy Schumacher, the composer Ellis Ludwig-Leone and the novelist Karen Russell teamed up, pushing one another to new places in their mediums.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>05NIGHT-FALLS-03-zfwc-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
